--- a/topic_analysis/topic-analysis.xlsx
+++ b/topic_analysis/topic-analysis.xlsx
@@ -83,6 +83,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -104,6 +105,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -126,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -134,6 +136,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -160,16 +169,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,19 +210,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,199 +294,205 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="B:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>12.0953869148196</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>7.72738202726958</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="6" t="n">
         <v>12.5731269007462</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>11.845685048874</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>10.7299145785335</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>8.79662838918086</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>8.9395205502694</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>8.20066711800842</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>8.39072532156522</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="6" t="n">
         <v>10.7009631507331</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>17.2140652224894</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>16.3347444119766</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="6" t="n">
         <v>6.15133936458374</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>12.804785265733</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>13.2940198167727</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>8.96727930427058</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>6.49341545750979</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>5.83089200573425</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>6.89087769462717</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="6" t="n">
         <v>6.0185814563028</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <f aca="false">B2-B3</f>
         <v>-5.11867830766974</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <f aca="false">C2-C3</f>
         <v>-8.60736238470704</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="6" t="n">
         <f aca="false">D2-D3</f>
         <v>6.42178753616247</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="7" t="n">
         <f aca="false">E2-E3</f>
         <v>-0.959100216859028</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <f aca="false">F2-F3</f>
         <v>-2.56410523823911</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="7" t="n">
         <f aca="false">G2-G3</f>
         <v>-0.170650915089725</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <f aca="false">H2-H3</f>
         <v>2.44610509275961</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <f aca="false">I2-I3</f>
         <v>2.36977511227418</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="7" t="n">
         <f aca="false">J2-J3</f>
         <v>1.49984762693805</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <f aca="false">K2-K3</f>
         <v>4.68238169443032</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
